--- a/int_analysis_mat_methods/10_other/aglo_KLASTERIZATsIYa.xlsx
+++ b/int_analysis_mat_methods/10_other/aglo_KLASTERIZATsIYa.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ДЛЯ===КОПИРОВАНИЯ\Dropbox\ЗАДАНИЯ\УМК\2016_2017\ИНФОРМАТИКИ\АНАЛИЗ=======ДАННЫХ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\third_course\int_analysis_mat_methods\10_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8241D5-A7DA-4DF7-8E3F-39260302D9DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6036" activeTab="4"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pr" sheetId="1" r:id="rId1"/>
@@ -18,10 +19,16 @@
     <sheet name="relation" sheetId="3" r:id="rId4"/>
     <sheet name="begin" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -102,9 +109,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -268,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -322,7 +329,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -355,7 +363,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -381,7 +388,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -655,7 +662,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="484661216"/>
@@ -717,7 +724,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="484664168"/>
@@ -758,7 +765,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1342,7 +1349,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1" descr="Вырезка экрана"/>
+        <xdr:cNvPr id="2" name="Рисунок 1" descr="Вырезка экрана">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1391,7 +1404,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1" descr="Вырезка экрана"/>
+        <xdr:cNvPr id="2" name="Рисунок 1" descr="Вырезка экрана">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1435,7 +1454,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2" descr="Вырезка экрана"/>
+        <xdr:cNvPr id="3" name="Рисунок 2" descr="Вырезка экрана">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1484,7 +1509,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1" descr="Вырезка экрана"/>
+        <xdr:cNvPr id="2" name="Рисунок 1" descr="Вырезка экрана">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1533,7 +1564,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1813,30 +1850,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C19" activeCellId="1" sqref="B20 C19"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="6" width="8.109375" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -1855,7 +1892,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -1883,7 +1920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1910,7 +1947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1938,7 +1975,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1959,7 +1996,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1980,7 +2017,16 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="16" t="s">
         <v>7</v>
@@ -1996,7 +2042,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
@@ -2021,7 +2067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>2</v>
       </c>
@@ -2046,7 +2092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>3</v>
       </c>
@@ -2071,7 +2117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>4</v>
       </c>
@@ -2096,7 +2142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2110,7 +2156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
         <v>16</v>
       </c>
@@ -2119,7 +2165,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
         <v>17</v>
       </c>
@@ -2128,7 +2174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="9" t="s">
         <v>9</v>
@@ -2140,7 +2186,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>7</v>
       </c>
@@ -2161,7 +2207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>3</v>
       </c>
@@ -2182,7 +2228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
@@ -2196,7 +2242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
@@ -2211,7 +2257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2232,16 +2278,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
@@ -2253,14 +2299,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2268,14 +2314,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2283,16 +2329,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>1</v>
       </c>
@@ -2308,7 +2354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>2</v>
       </c>
@@ -2324,7 +2370,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>3</v>
       </c>
@@ -2340,7 +2386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>5</v>
       </c>
@@ -2356,7 +2402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>6</v>
       </c>
@@ -2372,7 +2418,7 @@
         <v>6.0827625302982193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>8</v>
       </c>
@@ -2388,7 +2434,7 @@
         <v>5.3851648071345037</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>9</v>
       </c>
@@ -2396,7 +2442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>11</v>
       </c>
